--- a/defects.xlsx
+++ b/defects.xlsx
@@ -5,35 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssultanabarlaskar\Documents\Java COE\STLC-Tool\Test-Manager-Prototype\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\artifacts\jsonFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6756" tabRatio="843" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6756" tabRatio="843"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="12" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$H$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$H$3</definedName>
   </definedNames>
   <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Status , Defect Id , Priority and assigned to are mandatory</t>
-  </si>
-  <si>
-    <t>Defect Id</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -43,13 +36,43 @@
     <t>Functional Area</t>
   </si>
   <si>
-    <t>Detected On</t>
-  </si>
-  <si>
     <t>Assigned To</t>
   </si>
   <si>
-    <t>Planned Closure</t>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Detected in Release</t>
+  </si>
+  <si>
+    <t>Detected By</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Planned Closing Date</t>
+  </si>
+  <si>
+    <t>Detected on Date</t>
+  </si>
+  <si>
+    <t>Closing Date</t>
+  </si>
+  <si>
+    <t>Root Cause</t>
+  </si>
+  <si>
+    <t>Severity</t>
   </si>
 </sst>
 </file>
@@ -87,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,20 +123,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,33 +142,22 @@
       <top style="thin">
         <color rgb="FF808080"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF808080"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF808080"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -169,41 +169,22 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -547,158 +528,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="13.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="20.5546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="M3" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H9"/>
+  <autoFilter ref="A1:H3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
